--- a/Test Metrics.xlsx
+++ b/Test Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chukl\OneDrive\Documents\UniOfLincoln\Parallel Programming\CMP3752M-Assessment-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D6C53BF-0DE1-4612-A0F8-9CC232AB2944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F8580-C588-4DF5-804D-48E2200712CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58ABF0F4-5306-42C2-89B5-229A25C20A15}"/>
+    <workbookView xWindow="-26460" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{58ABF0F4-5306-42C2-89B5-229A25C20A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Test 1</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>8-bit</t>
+  </si>
+  <si>
+    <t>test.pgm</t>
+  </si>
+  <si>
+    <t>test_large.pgm</t>
   </si>
 </sst>
 </file>
@@ -456,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588FD223-CF4C-491C-8A19-0F8A4282FDBC}">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="B20" sqref="B20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,6 +781,54 @@
         <v>55352281.600000001</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1228800</v>
+      </c>
+      <c r="C20">
+        <v>1230848</v>
+      </c>
+      <c r="D20">
+        <v>1163232</v>
+      </c>
+      <c r="E20">
+        <v>1361920</v>
+      </c>
+      <c r="F20">
+        <v>1156096</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:G21" si="3">AVERAGE(B20:F20)</f>
+        <v>1228179.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>22693696</v>
+      </c>
+      <c r="C21">
+        <v>24498176</v>
+      </c>
+      <c r="D21">
+        <v>24958976</v>
+      </c>
+      <c r="E21">
+        <v>26193920</v>
+      </c>
+      <c r="F21">
+        <v>26352480</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>24939449.600000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Metrics.xlsx
+++ b/Test Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chukl\OneDrive\Documents\UniOfLincoln\Parallel Programming\CMP3752M-Assessment-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F8580-C588-4DF5-804D-48E2200712CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6ADD94-A20F-409D-BB85-E27309B17D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{58ABF0F4-5306-42C2-89B5-229A25C20A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58ABF0F4-5306-42C2-89B5-229A25C20A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Test 1</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>test_large.pgm</t>
+  </si>
+  <si>
+    <t>Int Hist 3</t>
+  </si>
+  <si>
+    <t>BP 2</t>
+  </si>
+  <si>
+    <t>BP 3</t>
+  </si>
+  <si>
+    <t>LUT 2</t>
+  </si>
+  <si>
+    <t>LUT 3</t>
   </si>
 </sst>
 </file>
@@ -145,9 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,15 +478,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588FD223-CF4C-491C-8A19-0F8A4282FDBC}">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:G21"/>
+      <selection activeCell="A32" sqref="A32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -513,7 +530,7 @@
         <v>240640</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G4" si="0">AVERAGE(B3:F3)</f>
+        <f t="shared" ref="G3:G5" si="0">AVERAGE(B3:F3)</f>
         <v>240800</v>
       </c>
     </row>
@@ -522,311 +539,545 @@
         <v>10</v>
       </c>
       <c r="B4">
+        <v>243488</v>
+      </c>
+      <c r="C4">
+        <v>242688</v>
+      </c>
+      <c r="D4">
+        <v>242688</v>
+      </c>
+      <c r="E4">
+        <v>239616</v>
+      </c>
+      <c r="F4">
+        <v>243392</v>
+      </c>
+      <c r="G4" s="1">
+        <f>AVERAGE(B4:F4)</f>
+        <v>242374.39999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
         <v>163712</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>163840</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>164768</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>159744</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>166752</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>163763.20000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>24448</v>
-      </c>
-      <c r="C6">
-        <v>23552</v>
-      </c>
-      <c r="D6">
-        <v>29376</v>
-      </c>
-      <c r="E6">
-        <v>24480</v>
-      </c>
-      <c r="F6">
-        <v>24576</v>
-      </c>
-      <c r="G6" s="1">
-        <f>AVERAGE(B6:F6)</f>
-        <v>25286.400000000001</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>9216</v>
+        <v>24448</v>
       </c>
       <c r="C7">
-        <v>30656</v>
+        <v>23552</v>
       </c>
       <c r="D7">
-        <v>28832</v>
+        <v>29376</v>
       </c>
       <c r="E7">
-        <v>9216</v>
+        <v>24480</v>
       </c>
       <c r="F7">
-        <v>13312</v>
+        <v>24576</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(B7:F7)</f>
-        <v>18246.400000000001</v>
+        <v>25286.400000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>34816</v>
+        <v>9216</v>
       </c>
       <c r="C8">
-        <v>10336</v>
+        <v>30656</v>
       </c>
       <c r="D8">
+        <v>28832</v>
+      </c>
+      <c r="E8">
         <v>9216</v>
       </c>
-      <c r="E8">
-        <v>8192</v>
-      </c>
       <c r="F8">
-        <v>10528</v>
+        <v>13312</v>
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(B8:F8)</f>
-        <v>14617.6</v>
+        <v>18246.400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
+        <v>34816</v>
+      </c>
+      <c r="C9">
+        <v>10336</v>
+      </c>
+      <c r="D9">
+        <v>9216</v>
+      </c>
+      <c r="E9">
         <v>8192</v>
       </c>
-      <c r="C9">
-        <v>12288</v>
-      </c>
-      <c r="D9">
-        <v>8192</v>
-      </c>
-      <c r="E9">
-        <v>8064</v>
-      </c>
       <c r="F9">
-        <v>29728</v>
+        <v>10528</v>
       </c>
       <c r="G9" s="1">
         <f>AVERAGE(B9:F9)</f>
+        <v>14617.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>8192</v>
+      </c>
+      <c r="C10">
+        <v>12288</v>
+      </c>
+      <c r="D10">
+        <v>8192</v>
+      </c>
+      <c r="E10">
+        <v>8064</v>
+      </c>
+      <c r="F10">
+        <v>29728</v>
+      </c>
+      <c r="G10" s="1">
+        <f>AVERAGE(B10:F10)</f>
         <v>13292.8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>8192</v>
-      </c>
-      <c r="C11">
-        <v>9216</v>
-      </c>
-      <c r="D11">
-        <v>29696</v>
-      </c>
-      <c r="E11">
-        <v>9088</v>
-      </c>
-      <c r="F11">
-        <v>7968</v>
-      </c>
-      <c r="G11" s="1">
-        <f>AVERAGE(B11:F11)</f>
-        <v>12832</v>
-      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
+        <v>8192</v>
+      </c>
+      <c r="C12">
         <v>9216</v>
       </c>
-      <c r="C12">
-        <v>9024</v>
-      </c>
       <c r="D12">
-        <v>8192</v>
+        <v>29696</v>
       </c>
       <c r="E12">
-        <v>10240</v>
+        <v>9088</v>
       </c>
       <c r="F12">
-        <v>8192</v>
+        <v>7968</v>
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(B12:F12)</f>
-        <v>8972.7999999999993</v>
+        <v>12832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>6144</v>
+      </c>
+      <c r="C13">
+        <v>6048</v>
+      </c>
+      <c r="D13">
+        <v>6144</v>
+      </c>
+      <c r="E13">
+        <v>11264</v>
+      </c>
+      <c r="F13">
+        <v>11264</v>
+      </c>
+      <c r="G13" s="1">
+        <f>AVERAGE(B13:F13)</f>
+        <v>8172.8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>856064</v>
+        <v>6144</v>
       </c>
       <c r="C14">
-        <v>878592</v>
+        <v>12128</v>
       </c>
       <c r="D14">
-        <v>939008</v>
+        <v>7168</v>
       </c>
       <c r="E14">
-        <v>916320</v>
+        <v>25600</v>
       </c>
       <c r="F14">
-        <v>837632</v>
+        <v>6144</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G15" si="1">AVERAGE(B14:F14)</f>
-        <v>885523.2</v>
+        <f>AVERAGE(B14:F14)</f>
+        <v>11436.8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>8901200</v>
-      </c>
-      <c r="C15">
-        <v>9480700</v>
-      </c>
-      <c r="D15">
-        <v>10055900</v>
-      </c>
-      <c r="E15">
-        <v>9192200</v>
-      </c>
-      <c r="F15">
-        <v>9274900</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>9380980</v>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>9216</v>
+      </c>
+      <c r="C16">
+        <v>9024</v>
+      </c>
+      <c r="D16">
+        <v>8192</v>
+      </c>
+      <c r="E16">
+        <v>10240</v>
+      </c>
+      <c r="F16">
+        <v>8192</v>
+      </c>
+      <c r="G16" s="1">
+        <f>AVERAGE(B16:F16)</f>
+        <v>8972.7999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>972800</v>
+        <v>264192</v>
       </c>
       <c r="C17">
-        <v>1043456</v>
+        <v>264192</v>
       </c>
       <c r="D17">
-        <v>1262400</v>
+        <v>264000</v>
       </c>
       <c r="E17">
-        <v>3221504</v>
+        <v>265216</v>
       </c>
       <c r="F17">
-        <v>1063936</v>
+        <v>264992</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G18" si="2">AVERAGE(B17:F17)</f>
-        <v>1512819.2</v>
+        <f t="shared" ref="G17:G18" si="1">AVERAGE(B17:F17)</f>
+        <v>264518.40000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>54750016</v>
+        <v>19456</v>
       </c>
       <c r="C18">
-        <v>55330816</v>
+        <v>20384</v>
       </c>
       <c r="D18">
-        <v>56768512</v>
+        <v>20288</v>
       </c>
       <c r="E18">
-        <v>54804480</v>
+        <v>19456</v>
       </c>
       <c r="F18">
-        <v>55107584</v>
+        <v>19456</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="2"/>
-        <v>55352281.600000001</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>19808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>1228800</v>
+        <v>856064</v>
       </c>
       <c r="C20">
-        <v>1230848</v>
+        <v>878592</v>
       </c>
       <c r="D20">
-        <v>1163232</v>
+        <v>939008</v>
       </c>
       <c r="E20">
-        <v>1361920</v>
+        <v>916320</v>
       </c>
       <c r="F20">
-        <v>1156096</v>
+        <v>837632</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G21" si="3">AVERAGE(B20:F20)</f>
-        <v>1228179.2</v>
+        <f t="shared" ref="G20:G21" si="2">AVERAGE(B20:F20)</f>
+        <v>885523.2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>8901200</v>
+      </c>
+      <c r="C21">
+        <v>9480700</v>
+      </c>
+      <c r="D21">
+        <v>10055900</v>
+      </c>
+      <c r="E21">
+        <v>9192200</v>
+      </c>
+      <c r="F21">
+        <v>9274900</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>9380980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>972800</v>
+      </c>
+      <c r="C23">
+        <v>1043456</v>
+      </c>
+      <c r="D23">
+        <v>1262400</v>
+      </c>
+      <c r="E23">
+        <v>3221504</v>
+      </c>
+      <c r="F23">
+        <v>1063936</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ref="G23:G24" si="3">AVERAGE(B23:F23)</f>
+        <v>1512819.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>54750016</v>
+      </c>
+      <c r="C24">
+        <v>55330816</v>
+      </c>
+      <c r="D24">
+        <v>56768512</v>
+      </c>
+      <c r="E24">
+        <v>54804480</v>
+      </c>
+      <c r="F24">
+        <v>55107584</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="3"/>
+        <v>55352281.600000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>1228800</v>
+      </c>
+      <c r="C26">
+        <v>1230848</v>
+      </c>
+      <c r="D26">
+        <v>1163232</v>
+      </c>
+      <c r="E26">
+        <v>1361920</v>
+      </c>
+      <c r="F26">
+        <v>1156096</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ref="G26:G27" si="4">AVERAGE(B26:F26)</f>
+        <v>1228179.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B27">
         <v>22693696</v>
       </c>
-      <c r="C21">
+      <c r="C27">
         <v>24498176</v>
       </c>
-      <c r="D21">
+      <c r="D27">
         <v>24958976</v>
       </c>
-      <c r="E21">
+      <c r="E27">
         <v>26193920</v>
       </c>
-      <c r="F21">
+      <c r="F27">
         <v>26352480</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="3"/>
+      <c r="G27" s="1">
+        <f t="shared" si="4"/>
         <v>24939449.600000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>908288</v>
+      </c>
+      <c r="C29">
+        <v>977920</v>
+      </c>
+      <c r="D29">
+        <v>924672</v>
+      </c>
+      <c r="E29">
+        <v>1149952</v>
+      </c>
+      <c r="F29">
+        <v>943104</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ref="G29:G30" si="5">AVERAGE(B29:F29)</f>
+        <v>980787.19999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>13317120</v>
+      </c>
+      <c r="C30">
+        <v>12933120</v>
+      </c>
+      <c r="D30">
+        <v>13275136</v>
+      </c>
+      <c r="E30">
+        <v>14127904</v>
+      </c>
+      <c r="F30">
+        <v>13222912</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="5"/>
+        <v>13375238.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>908288</v>
+      </c>
+      <c r="C32">
+        <v>977920</v>
+      </c>
+      <c r="D32">
+        <v>924672</v>
+      </c>
+      <c r="E32">
+        <v>1149952</v>
+      </c>
+      <c r="F32">
+        <v>943104</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ref="G32:G33" si="6">AVERAGE(B32:F32)</f>
+        <v>980787.19999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>1010528</v>
+      </c>
+      <c r="C33">
+        <v>1408000</v>
+      </c>
+      <c r="D33">
+        <v>1049600</v>
+      </c>
+      <c r="E33">
+        <v>1046528</v>
+      </c>
+      <c r="F33">
+        <v>1056512</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="6"/>
+        <v>1114233.6000000001</v>
       </c>
     </row>
   </sheetData>
